--- a/big-data/big-data-capstone/project/data/beer_n_Red Rock.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Red Rock.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 1.4April 3, 2018
 On tap, clear amber, medium head and nice lacing. Aroma of macro lager malts, flat. Tastes medium bitter, strong corn syrup and rice, not much more. Struggling with this.
@@ -982,7 +982,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>patrick767(5,996)
+          <t>patrick767(6,000)
 🇺🇸fort wayne, United States
 2.5June 10, 2008
 draft - hmmm...  this beer rises to the level of somewhat below average.  Wow!  That’s high praise for this brewery.  It’s light amber with a quickly fading head and a mild lightly roasted…
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SHIG(11,157)
+          <t>SHIG(11,158)
 🇺🇸Hampton, United States
 1.4January 31, 2006
 Dark in color with reddish tint. Bitter flavor, knockoff of a Killians irish red for Koreans. Smell was skunky. Not very pleasant, unless there was nothing else.
